--- a/SQL/kitap-satis-normalizasyon.xlsx
+++ b/SQL/kitap-satis-normalizasyon.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazim.kalyoncu\source\repos\Ank16\mt\Sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumeyye\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B407A6-278E-4635-87DF-F876A72AAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{5E73517C-7ED7-4183-80C1-BD576A795DED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UDF" sheetId="1" r:id="rId1"/>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,23 +836,11 @@
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -863,21 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -893,22 +865,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -920,16 +923,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE08F52-782B-4A1C-90F6-BB93BA1434F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1261,81 +1260,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1346,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C019270-02B6-41A7-B9F4-8D5C3E1D5F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -1369,159 +1368,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>45332</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>45337</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4">
         <v>45329</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>45342</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1533,12 +1532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B6760C-5055-4DAF-8898-DB149352118D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,397 +1552,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="21">
         <v>101</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="15">
         <v>45332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="21">
         <v>101</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="15">
         <v>45332</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="21">
         <v>102</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="15">
         <v>45337</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="21">
         <v>102</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="24">
-        <v>45338</v>
+      <c r="H6" s="15">
+        <v>45337</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="21">
         <v>103</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="21">
         <v>103</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="21">
         <v>104</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="21">
         <v>104</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="21">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="21">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="21">
         <v>105</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="21">
         <v>105</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="21">
         <v>101</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="23">
         <v>101</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1954,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6D7581-39D6-4D8F-B56C-C6C9E1942078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -1974,361 +1973,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>101</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="15">
         <v>45332</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>101</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="15">
         <v>45332</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>102</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="15">
         <v>45337</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>102</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="15">
         <v>45337</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>103</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>103</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>104</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>104</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="15">
         <v>45329</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>105</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>105</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>101</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <v>101</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="E21" s="40" t="s">
+      <c r="B21" s="46"/>
+      <c r="E21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="B22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>1</v>
-      </c>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="21">
+        <v>1</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>101</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="21">
         <v>7</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>102</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="21">
         <v>13</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>103</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>104</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>105</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2343,7 +2342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C839B9-5E6D-4E73-9867-DA5C1079E8A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -2365,346 +2364,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="43"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>101</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
         <v>45332</v>
       </c>
-      <c r="G3" s="44">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>102</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="15">
         <v>45337</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>103</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="G5" s="13">
+      <c r="E5" s="15"/>
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>104</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="15">
         <v>45329</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>4</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>105</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <v>45342</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>101</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="50"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="D13" s="42" t="s">
+      <c r="B13" s="55"/>
+      <c r="D13" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="G13" s="42" t="s">
+      <c r="E13" s="50"/>
+      <c r="G13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="J13" s="42" t="s">
+      <c r="H13" s="50"/>
+      <c r="J13" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="43"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <v>1</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="45">
-        <v>1</v>
-      </c>
-      <c r="G15" s="44">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="31">
         <v>101</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>102</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>7</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <v>3</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>103</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>4</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>104</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>7</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>5</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>105</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>13</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
         <v>6</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>13</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>6</v>
       </c>
     </row>
@@ -2722,11 +2721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B83BC26-0CB9-4BA3-BD3A-3D2275EA2F7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -2745,367 +2744,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="51"/>
-      <c r="I1" s="42" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="38"/>
+      <c r="I2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="44">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>101</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="35">
         <v>45332</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="I3" s="44">
-        <v>1</v>
-      </c>
-      <c r="J3" s="45" t="s">
+      <c r="F3" s="34"/>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>102</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="15">
         <v>45337</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="I4" s="13">
+      <c r="F4" s="4"/>
+      <c r="I4" s="9">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>103</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="15">
         <v>45337</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="I5" s="13">
+      <c r="F5" s="4"/>
+      <c r="I5" s="9">
         <v>3</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>104</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="15">
         <v>45329</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="I6" s="15">
+      <c r="F6" s="4"/>
+      <c r="I6" s="11">
         <v>4</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>105</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <v>45342</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>13</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>101</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>45332</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="50"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="D13" s="42" t="s">
+      <c r="B13" s="55"/>
+      <c r="D13" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="G13" s="42" t="s">
+      <c r="E13" s="50"/>
+      <c r="G13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="J13" s="42" t="s">
+      <c r="H13" s="50"/>
+      <c r="J13" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="43"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <v>1</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="44">
-        <v>1</v>
-      </c>
-      <c r="E15" s="45">
-        <v>1</v>
-      </c>
-      <c r="G15" s="44">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="31">
         <v>101</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>102</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>7</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <v>3</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>103</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>4</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>104</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>7</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>5</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>5</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="11">
         <v>105</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>13</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
         <v>6</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>13</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3128,7 +3127,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>45324</v>
       </c>
       <c r="D26">
@@ -3142,7 +3141,7 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>45327</v>
       </c>
       <c r="D27">
@@ -3156,7 +3155,7 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>45328</v>
       </c>
       <c r="D28">
@@ -3170,7 +3169,7 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>45329</v>
       </c>
       <c r="D29">
@@ -3184,7 +3183,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>45330</v>
       </c>
       <c r="D30">
